--- a/biology/Médecine/Chondrodystrophie_calcifiante_congénitale/Chondrodystrophie_calcifiante_congénitale.xlsx
+++ b/biology/Médecine/Chondrodystrophie_calcifiante_congénitale/Chondrodystrophie_calcifiante_congénitale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chondrodystrophie_calcifiante_cong%C3%A9nitale</t>
+          <t>Chondrodystrophie_calcifiante_congénitale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La chondrodystrophie calcifiante congénitale est une ostéochondrodysplasie secondaire à un déficit qualitatif enzymatique impliqué dans la synthèse du cholestérol.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chondrodystrophie_calcifiante_cong%C3%A9nitale</t>
+          <t>Chondrodystrophie_calcifiante_congénitale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette affection répond à des dénominations variées[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette affection répond à des dénominations variées :
 chondrodysplasie congénitale calcifiante ;
 chondrodystrophie calcifiante congénitale ;
 dysplasie épiphysaire ponctuée ;
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chondrodystrophie_calcifiante_cong%C3%A9nitale</t>
+          <t>Chondrodystrophie_calcifiante_congénitale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,9 +570,11 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Mutation du gène EBP (Emopamil binding protein) située au locus p11.23-p11.22 du chromosome X codant la 3-beta-hydroxysteroide-delta(8), delta(7)-isomérase[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mutation du gène EBP (Emopamil binding protein) située au locus p11.23-p11.22 du chromosome X codant la 3-beta-hydroxysteroide-delta(8), delta(7)-isomérase</t>
         </is>
       </c>
     </row>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chondrodystrophie_calcifiante_cong%C3%A9nitale</t>
+          <t>Chondrodystrophie_calcifiante_congénitale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Incidence et prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prévalence : 1-9 / 1 000 000</t>
         </is>
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chondrodystrophie_calcifiante_cong%C3%A9nitale</t>
+          <t>Chondrodystrophie_calcifiante_congénitale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>anomalies de développement des os longs
 déformation des grosses articulations
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chondrodystrophie_calcifiante_cong%C3%A9nitale</t>
+          <t>Chondrodystrophie_calcifiante_congénitale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,8 +673,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Clinique
-Chez une fillette en âge scolaire, signes et symptômes suivants doivent alerter le clinicien[3],[4] :
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez une fillette en âge scolaire, signes et symptômes suivants doivent alerter le clinicien, :
 retard de croissance : taille à l'âge adulte généralement inférieure à 1,5 m (nanisme) ;
 croissance asymétrique des membres, pouvant conduire à terme à une inégalité de longueur des membres importante ;
 scoliose ;
@@ -666,8 +691,7 @@
 cheveux fins, secs et rares,
 anomalies de la pigmentation de la peau.
 Les chondrodysplasies ponctuées n'ont pas de conséquence sur le développement intellectuel des enfants.
-Biologique
-Génétique</t>
+</t>
         </is>
       </c>
     </row>
@@ -677,7 +701,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chondrodystrophie_calcifiante_cong%C3%A9nitale</t>
+          <t>Chondrodystrophie_calcifiante_congénitale</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -696,6 +720,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -703,7 +729,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chondrodystrophie_calcifiante_cong%C3%A9nitale</t>
+          <t>Chondrodystrophie_calcifiante_congénitale</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -722,6 +748,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -729,7 +757,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chondrodystrophie_calcifiante_cong%C3%A9nitale</t>
+          <t>Chondrodystrophie_calcifiante_congénitale</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -747,7 +775,9 @@
           <t>Mode transmission</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Dominante liée au chromosome X</t>
         </is>
@@ -759,7 +789,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chondrodystrophie_calcifiante_cong%C3%A9nitale</t>
+          <t>Chondrodystrophie_calcifiante_congénitale</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -779,9 +809,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Famille d’un patient
-Seules les filles sont atteintes[3]. Une femme malade a un risque sur 2 de transmettre la maladie à ses filles. Chez les garçons la maladie est létale.
-Dépistage prénatal</t>
+          <t>Famille d’un patient</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seules les filles sont atteintes. Une femme malade a un risque sur 2 de transmettre la maladie à ses filles. Chez les garçons la maladie est létale.
+</t>
         </is>
       </c>
     </row>
